--- a/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,6 +432,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -456,95 +534,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,12 +877,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -888,1156 +891,1159 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="34">
         <v>41752</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="30">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="4">
         <v>1.5</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="4">
         <v>18</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="4">
         <v>6</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="4">
         <f>ROUND(D14/D37*100,1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="4">
         <f>I14</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="4">
         <v>0.4</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="4">
         <v>0.4</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="7">
         <v>0.3</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="4">
         <f>D15+E14</f>
         <v>1.8</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="4">
         <f>ROUND(D15/D37*100,1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="4">
         <f>I15+J14</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="4">
         <v>0.3</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="4">
         <f>K15+L14</f>
         <v>0.7</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="7">
         <v>0.2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="4">
         <f t="shared" ref="E16:E36" si="0">D16+E15</f>
         <v>2</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="4">
         <v>6</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="4">
         <f>ROUND(D16/D37*100,1)</f>
         <v>0.7</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="4">
         <f t="shared" ref="J16:J36" si="1">I16+J15</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="4">
         <v>0.3</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="4">
         <f t="shared" ref="L16:L36" si="2">K16+L15</f>
         <v>1</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
         <v>6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="4">
         <f>ROUND(D17/D37*100,1)</f>
         <v>1.9</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="7">
         <v>1.5</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="4">
         <v>8</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="4">
         <v>6</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="4">
         <f>ROUND(D18/D37*100,1)</f>
         <v>5.6</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="4">
         <v>2</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="4">
         <f>ROUND(D19/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>14.100000000000001</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="4">
         <v>1.5</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="4">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="4">
         <v>7</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="4">
         <f>ROUND(D20/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="4">
         <v>2.5</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>7</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="4">
         <f>ROUND(D21/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
-      <c r="L21" s="18">
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="26">
         <v>7</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="4">
         <f>ROUND(D22/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>28.9</v>
       </c>
-      <c r="K22" s="18">
-        <v>1</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="4">
         <v>20</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="4">
         <v>7</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="4">
         <f>ROUND(D23/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>36.299999999999997</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="4">
         <v>1.7</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="4">
         <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="11">
         <v>0.5</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>8</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="4">
         <f>ROUND(D24/D37*100,1)</f>
         <v>1.9</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>38.199999999999996</v>
       </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
+      <c r="K24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M24" s="18"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="11">
         <v>3</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="4">
         <v>336</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="4">
         <v>8</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="4">
         <f>ROUND(D25/D37*100,1)</f>
         <v>11.1</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>49.3</v>
       </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
+      <c r="K25" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M25" s="18"/>
+        <v>14.599999999999998</v>
+      </c>
+      <c r="M25" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="25">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="4">
         <v>8</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="4">
         <f>ROUND(D26/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="K26" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M26" s="18"/>
+        <v>15.199999999999998</v>
+      </c>
+      <c r="M26" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="11">
         <v>2</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="4">
         <v>10</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="4">
         <v>8</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="4">
         <f>ROUND(D27/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>60.4</v>
       </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M27" s="18"/>
+        <v>18.199999999999996</v>
+      </c>
+      <c r="M27" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="25">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="18">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
         <v>8</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="4">
         <f>ROUND(D28/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>64.099999999999994</v>
       </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M28" s="18"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="M28" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="25">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
         <v>8</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="4">
         <f>ROUND(D29/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>67.8</v>
       </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="K29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M29" s="18"/>
+        <v>19.899999999999995</v>
+      </c>
+      <c r="M29" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="4">
         <v>20</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="4">
         <v>8</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="4">
         <f>ROUND(D30/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
-      <c r="K30" s="18">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
+      <c r="K30" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M30" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M30" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="12">
         <v>2</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="4">
         <v>5</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="4">
         <v>9</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="4">
         <f>ROUND(D31/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>82.600000000000009</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M31" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="12">
         <v>0.5</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="4">
         <v>2</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="4">
         <v>9</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="4">
         <f>ROUND(D32/D37*100,1)</f>
         <v>1.9</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>84.500000000000014</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M32" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="12">
         <v>0.5</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="4">
         <v>5</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="4">
         <v>9</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="4">
         <f>ROUND(D33/D37*100,1)</f>
         <v>1.9</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="4">
         <f t="shared" si="1"/>
         <v>86.40000000000002</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M33" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="26">
-        <v>1</v>
-      </c>
-      <c r="E34" s="18">
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="4">
         <v>9</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="4">
         <f>ROUND(D34/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="4">
         <f t="shared" si="1"/>
         <v>90.100000000000023</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M34" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18">
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="4">
         <v>2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="4">
         <v>9</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="4">
         <f>ROUND(D35/D37*100,1)</f>
         <v>3.7</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="4">
         <f t="shared" si="1"/>
         <v>93.800000000000026</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="4">
         <v>0</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M35" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="12">
         <v>2</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="4">
         <v>20</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="4">
         <v>9</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="4">
         <f>ROUND(D36/D37*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="4">
         <f t="shared" si="1"/>
         <v>101.20000000000003</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="M36" s="18"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="36">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="21">
         <f>SUM(D14:D36)</f>
         <v>27</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="18">
+      <c r="E37" s="22"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="4">
         <f>SUM(I14:I36)</f>
         <v>101.20000000000003</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="18">
+      <c r="J37" s="24"/>
+      <c r="K37" s="4">
         <f>SUM(K14:K36)</f>
-        <v>11.7</v>
-      </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="40"/>
+        <v>21.199999999999996</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A31:A36"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -2054,7 +2060,18 @@
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2075,1066 +2092,1073 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="4">
         <v>1.5</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="4">
         <v>18</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="4">
         <v>6</v>
       </c>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="18" t="e">
+      <c r="J8" s="4" t="e">
         <f>I8</f>
         <v>#REF!</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="7">
         <v>0.3</v>
       </c>
-      <c r="E9" s="18" t="e">
+      <c r="E9" s="4" t="e">
         <f>#REF!+E8</f>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>6</v>
       </c>
-      <c r="I9" s="18" t="e">
+      <c r="I9" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="18" t="e">
+      <c r="J9" s="4" t="e">
         <f t="shared" ref="J9:J30" si="0">I9+J8</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="4">
         <f>K9+L8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="7">
         <v>0.2</v>
       </c>
-      <c r="E10" s="18" t="e">
+      <c r="E10" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="18" t="e">
+      <c r="I10" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="18" t="e">
+      <c r="J10" s="4" t="e">
         <f>I10+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="18" t="e">
+      <c r="L10" s="4" t="e">
         <f>K10+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <v>0.5</v>
       </c>
-      <c r="E11" s="18" t="e">
+      <c r="E11" s="4" t="e">
         <f>#REF!+E10</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>6</v>
       </c>
-      <c r="I11" s="18" t="e">
+      <c r="I11" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="18" t="e">
+      <c r="J11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="18" t="e">
+      <c r="L11" s="4" t="e">
         <f t="shared" ref="L11:L30" si="1">K11+L10</f>
         <v>#REF!</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="7">
         <v>1.5</v>
       </c>
-      <c r="E12" s="18" t="e">
+      <c r="E12" s="4" t="e">
         <f>#REF!+E11</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="4">
         <v>8</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="4">
         <v>6</v>
       </c>
-      <c r="I12" s="18" t="e">
+      <c r="I12" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="18" t="e">
+      <c r="J12" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="18" t="e">
+      <c r="L12" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18" t="e">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>7</v>
       </c>
-      <c r="I13" s="18" t="e">
+      <c r="I13" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="18" t="e">
+      <c r="J13" s="4" t="e">
         <f>I13+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="18" t="e">
+      <c r="L13" s="4" t="e">
         <f>K13+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="18" t="e">
+      <c r="E14" s="4" t="e">
         <f>#REF!+E13</f>
         <v>#REF!</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="4">
         <v>7</v>
       </c>
-      <c r="I14" s="18" t="e">
+      <c r="I14" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J14" s="18" t="e">
+      <c r="J14" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="L14" s="18" t="e">
+      <c r="L14" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="23">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18" t="e">
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <v>7</v>
       </c>
-      <c r="I15" s="18" t="e">
+      <c r="I15" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J15" s="18" t="e">
+      <c r="J15" s="4" t="e">
         <f>I15+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18" t="e">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="e">
         <f>K15+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18" t="e">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="e">
         <f>#REF!+E15</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="10">
         <v>7</v>
       </c>
-      <c r="I16" s="18" t="e">
+      <c r="I16" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="18" t="e">
+      <c r="J16" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18" t="e">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="e">
+      <c r="E17" s="4" t="e">
         <f>#REF!+E16</f>
         <v>#REF!</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="4">
         <v>20</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="4">
         <v>7</v>
       </c>
-      <c r="I17" s="18" t="e">
+      <c r="I17" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J17" s="18" t="e">
+      <c r="J17" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="e">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="11">
         <v>0.5</v>
       </c>
-      <c r="E18" s="18" t="e">
+      <c r="E18" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>8</v>
       </c>
-      <c r="I18" s="18" t="e">
+      <c r="I18" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="18" t="e">
+      <c r="J18" s="4" t="e">
         <f>I18+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18" t="e">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="e">
         <f>K18+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M18" s="18"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="18" t="e">
+      <c r="E19" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="4">
         <v>336</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="4">
         <v>8</v>
       </c>
-      <c r="I19" s="18" t="e">
+      <c r="I19" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J19" s="18" t="e">
+      <c r="J19" s="4" t="e">
         <f>I19+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="18" t="e">
+      <c r="L19" s="4" t="e">
         <f>K19+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18" t="e">
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="4">
         <v>8</v>
       </c>
-      <c r="I20" s="18" t="e">
+      <c r="I20" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J20" s="18" t="e">
+      <c r="J20" s="4" t="e">
         <f>I20+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="18" t="e">
+      <c r="L20" s="4" t="e">
         <f>K20+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M20" s="18"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="18" t="e">
+      <c r="E21" s="4" t="e">
         <f>#REF!+E20</f>
         <v>#REF!</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="4">
         <v>8</v>
       </c>
-      <c r="I21" s="18" t="e">
+      <c r="I21" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J21" s="18" t="e">
+      <c r="J21" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="18" t="e">
+      <c r="L21" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="25">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18" t="e">
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>8</v>
       </c>
-      <c r="I22" s="18" t="e">
+      <c r="I22" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J22" s="18" t="e">
+      <c r="J22" s="4" t="e">
         <f>I22+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="e">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="e">
         <f>K22+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18" t="e">
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="e">
         <f>#REF!+E22</f>
         <v>#REF!</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
         <v>8</v>
       </c>
-      <c r="I23" s="18" t="e">
+      <c r="I23" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J23" s="18" t="e">
+      <c r="J23" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18" t="e">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="11">
         <v>2</v>
       </c>
-      <c r="E24" s="18" t="e">
+      <c r="E24" s="4" t="e">
         <f>#REF!+E23</f>
         <v>#REF!</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="4">
         <v>20</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="4">
         <v>8</v>
       </c>
-      <c r="I24" s="18" t="e">
+      <c r="I24" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J24" s="18" t="e">
+      <c r="J24" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18" t="e">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="12">
         <v>2</v>
       </c>
-      <c r="E25" s="18" t="e">
+      <c r="E25" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="4">
         <v>9</v>
       </c>
-      <c r="I25" s="18" t="e">
+      <c r="I25" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J25" s="18" t="e">
+      <c r="J25" s="4" t="e">
         <f>I25+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="18" t="e">
+      <c r="L25" s="4" t="e">
         <f>K25+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="12">
         <v>0.5</v>
       </c>
-      <c r="E26" s="18" t="e">
+      <c r="E26" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="4">
         <v>9</v>
       </c>
-      <c r="I26" s="18" t="e">
+      <c r="I26" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J26" s="18" t="e">
+      <c r="J26" s="4" t="e">
         <f>I26+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18" t="e">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="e">
         <f>K26+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="12">
         <v>0.5</v>
       </c>
-      <c r="E27" s="18" t="e">
+      <c r="E27" s="4" t="e">
         <f>#REF!+E26</f>
         <v>#REF!</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="4">
         <v>9</v>
       </c>
-      <c r="I27" s="18" t="e">
+      <c r="I27" s="4" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J27" s="18" t="e">
+      <c r="J27" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18" t="e">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="26">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="e">
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="4">
         <v>9</v>
       </c>
-      <c r="I28" s="29" t="e">
+      <c r="I28" s="15" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J28" s="18" t="e">
+      <c r="J28" s="4" t="e">
         <f>I28+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="18" t="e">
+      <c r="L28" s="4" t="e">
         <f>K28+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30" t="s">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="26">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18" t="e">
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="e">
         <f>#REF!+E28</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="4">
         <v>2</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="4">
         <v>9</v>
       </c>
-      <c r="I29" s="29" t="e">
+      <c r="I29" s="15" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J29" s="18" t="e">
+      <c r="J29" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18" t="e">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="12">
         <v>2</v>
       </c>
-      <c r="E30" s="18" t="e">
+      <c r="E30" s="4" t="e">
         <f>#REF!+E29</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="4">
         <v>20</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="4">
         <v>9</v>
       </c>
-      <c r="I30" s="29" t="e">
+      <c r="I30" s="15" t="e">
         <f>ROUND(((#REF!/#REF!)*100),1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J30" s="18" t="e">
+      <c r="J30" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18" t="e">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="36">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21">
         <f>SUM(D8:D30)</f>
         <v>27</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="18" t="e">
+      <c r="E31" s="22"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="4" t="e">
         <f>SUM(I8:I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="18">
+      <c r="J31" s="24"/>
+      <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="40"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3150,13 +3174,6 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
@@ -239,17 +239,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -501,13 +504,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,30 +551,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,12 +880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -891,190 +894,190 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="42">
         <v>41752</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="35" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1088,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="4">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -1130,7 +1133,7 @@
       </c>
       <c r="E15" s="4">
         <f>D15+E14</f>
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -1161,7 +1164,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="5"/>
@@ -1173,7 +1176,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" ref="E16:E36" si="0">D16+E15</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -1204,7 +1207,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>27</v>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -1245,7 +1248,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -1255,7 +1258,7 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
@@ -1329,7 +1332,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="5"/>
@@ -1341,7 +1344,7 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1409,7 +1412,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
@@ -1419,7 +1422,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>25</v>
@@ -1491,7 +1494,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="5"/>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>10.3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>34</v>
@@ -1534,7 +1537,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>23</v>
@@ -1544,7 +1547,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>13.3</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>26</v>
@@ -1575,7 +1578,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="5"/>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>34</v>
@@ -1618,7 +1621,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
         <v>31</v>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>25</v>
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>52</v>
@@ -1669,7 +1672,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>34</v>
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>18.3</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>34</v>
@@ -1741,7 +1744,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>48</v>
@@ -1751,7 +1754,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>34</v>
@@ -1782,7 +1785,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="5"/>
@@ -1794,7 +1797,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>25</v>
@@ -1823,7 +1826,7 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>34</v>
@@ -1862,7 +1865,7 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>57</v>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>23.3</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>34</v>
@@ -1901,7 +1904,7 @@
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>24</v>
@@ -1911,7 +1914,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>25</v>
@@ -1940,7 +1943,7 @@
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="13"/>
       <c r="C35" s="16" t="s">
         <v>58</v>
@@ -1950,7 +1953,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>34</v>
@@ -1979,7 +1982,7 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16" t="s">
         <v>48</v>
@@ -1989,7 +1992,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>34</v>
@@ -2043,6 +2046,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
@@ -2059,19 +2075,6 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2092,141 +2095,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2313,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5"/>
@@ -2356,7 +2359,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>27</v>
@@ -2397,7 +2400,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -2479,7 +2482,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="5"/>
@@ -2522,7 +2525,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>46</v>
@@ -2557,7 +2560,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>47</v>
@@ -2596,7 +2599,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>48</v>
@@ -2633,7 +2636,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>50</v>
@@ -2670,7 +2673,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -2709,7 +2712,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="5"/>
@@ -2750,7 +2753,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2789,7 +2792,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>52</v>
@@ -2826,7 +2829,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>53</v>
@@ -2863,7 +2866,7 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2900,7 +2903,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="5"/>
@@ -2941,7 +2944,7 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>56</v>
@@ -2978,7 +2981,7 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>57</v>
@@ -3015,7 +3018,7 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>24</v>
@@ -3054,7 +3057,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="13"/>
       <c r="C29" s="16" t="s">
         <v>58</v>
@@ -3091,7 +3094,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13"/>
       <c r="C30" s="16" t="s">
         <v>48</v>
@@ -3152,13 +3155,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3174,6 +3170,13 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -504,9 +499,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -520,15 +539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,21 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,7 +854,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,12 +875,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -894,190 +889,190 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="35">
         <v>41752</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="29" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1164,7 +1159,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="5"/>
@@ -1207,7 +1202,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>27</v>
@@ -1248,7 +1243,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -1332,7 +1327,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="5"/>
@@ -1375,7 +1370,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
@@ -1412,7 +1407,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
@@ -1453,7 +1448,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
@@ -1494,7 +1489,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="5"/>
@@ -1537,7 +1532,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>23</v>
@@ -1567,18 +1562,18 @@
         <v>49.3</v>
       </c>
       <c r="K25" s="4">
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>14.599999999999998</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="M25" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="5"/>
@@ -1614,14 +1609,14 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>15.199999999999998</v>
+        <v>18.2</v>
       </c>
       <c r="M26" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
         <v>31</v>
@@ -1655,14 +1650,14 @@
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>18.199999999999996</v>
+        <v>21.2</v>
       </c>
       <c r="M27" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>52</v>
@@ -1696,14 +1691,14 @@
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>19.199999999999996</v>
+        <v>22.2</v>
       </c>
       <c r="M28" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -1737,14 +1732,14 @@
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>19.899999999999995</v>
+        <v>22.9</v>
       </c>
       <c r="M29" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>48</v>
@@ -1778,14 +1773,14 @@
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M30" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="5"/>
@@ -1821,12 +1816,12 @@
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -1860,12 +1855,12 @@
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>57</v>
@@ -1899,12 +1894,12 @@
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>24</v>
@@ -1938,12 +1933,12 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="13"/>
       <c r="C35" s="16" t="s">
         <v>58</v>
@@ -1977,12 +1972,12 @@
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16" t="s">
         <v>48</v>
@@ -2016,7 +2011,7 @@
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -2039,26 +2034,13 @@
       <c r="J37" s="24"/>
       <c r="K37" s="4">
         <f>SUM(K14:K36)</f>
-        <v>21.199999999999996</v>
+        <v>24.2</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
@@ -2075,6 +2057,19 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="H8:H13"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="I8:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2095,141 +2090,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2316,7 +2311,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5"/>
@@ -2359,7 +2354,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>27</v>
@@ -2400,7 +2395,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -2482,7 +2477,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="5"/>
@@ -2525,7 +2520,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>46</v>
@@ -2560,7 +2555,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>47</v>
@@ -2599,7 +2594,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>48</v>
@@ -2636,7 +2631,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>50</v>
@@ -2673,7 +2668,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -2712,7 +2707,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="5"/>
@@ -2753,7 +2748,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2792,7 +2787,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>52</v>
@@ -2829,7 +2824,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>53</v>
@@ -2866,7 +2861,7 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2903,7 +2898,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="5"/>
@@ -2944,7 +2939,7 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>56</v>
@@ -2981,7 +2976,7 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>57</v>
@@ -3018,7 +3013,7 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>24</v>
@@ -3057,7 +3052,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="13"/>
       <c r="C29" s="16" t="s">
         <v>58</v>
@@ -3094,7 +3089,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="13"/>
       <c r="C30" s="16" t="s">
         <v>48</v>
@@ -3155,6 +3150,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3170,13 +3172,6 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia - ciclo2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>TSPi Example Task Planning Template - Form TASK</t>
   </si>
@@ -199,6 +204,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -499,18 +507,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,25 +558,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,7 +621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,12 +889,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -889,190 +903,190 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="43">
         <v>41752</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="37" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1082,8 +1096,8 @@
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
+      <c r="D14" s="7">
+        <v>0.3</v>
       </c>
       <c r="E14" s="4">
         <v>0.3</v>
@@ -1159,7 +1173,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="5"/>
@@ -1169,7 +1183,7 @@
       <c r="D16" s="7">
         <v>0.2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="27">
         <f t="shared" ref="E16:E36" si="0">D16+E15</f>
         <v>0.8</v>
       </c>
@@ -1202,7 +1216,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>27</v>
@@ -1210,7 +1224,7 @@
       <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
@@ -1225,11 +1239,11 @@
       </c>
       <c r="I17" s="4">
         <f>ROUND(D17/D37*100,1)</f>
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.7</v>
       </c>
       <c r="K17" s="4">
         <v>1</v>
@@ -1243,7 +1257,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -1251,7 +1265,7 @@
       <c r="D18" s="7">
         <v>1.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
@@ -1266,11 +1280,11 @@
       </c>
       <c r="I18" s="4">
         <f>ROUND(D18/D37*100,1)</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
-        <v>10.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1294,7 +1308,7 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
@@ -1313,7 +1327,7 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="1"/>
-        <v>14.100000000000001</v>
+        <v>13.899999999999999</v>
       </c>
       <c r="K19" s="4">
         <v>1.5</v>
@@ -1327,7 +1341,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="5"/>
@@ -1337,7 +1351,7 @@
       <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
@@ -1352,11 +1366,11 @@
       </c>
       <c r="I20" s="4">
         <f>ROUND(D20/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="K20" s="4">
         <v>2.5</v>
@@ -1370,7 +1384,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
@@ -1378,7 +1392,7 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
@@ -1393,7 +1407,7 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -1407,7 +1421,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
@@ -1415,7 +1429,7 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
@@ -1434,7 +1448,7 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
-        <v>28.9</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
@@ -1448,7 +1462,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
@@ -1456,7 +1470,7 @@
       <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
@@ -1471,11 +1485,11 @@
       </c>
       <c r="I23" s="4">
         <f>ROUND(D23/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="K23" s="4">
         <v>1.7</v>
@@ -1489,7 +1503,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="5"/>
@@ -1499,7 +1513,7 @@
       <c r="D24" s="11">
         <v>0.5</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
@@ -1514,11 +1528,11 @@
       </c>
       <c r="I24" s="4">
         <f>ROUND(D24/D37*100,1)</f>
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
-        <v>38.199999999999996</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="K24" s="4">
         <v>0.7</v>
@@ -1532,7 +1546,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>23</v>
@@ -1540,7 +1554,7 @@
       <c r="D25" s="11">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
@@ -1555,11 +1569,11 @@
       </c>
       <c r="I25" s="4">
         <f>ROUND(D25/D37*100,1)</f>
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
-        <v>49.3</v>
+        <v>48.699999999999996</v>
       </c>
       <c r="K25" s="4">
         <v>5.2</v>
@@ -1573,7 +1587,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="5"/>
@@ -1583,7 +1597,7 @@
       <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
@@ -1602,7 +1616,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="K26" s="4">
         <v>0.6</v>
@@ -1616,7 +1630,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
         <v>31</v>
@@ -1624,7 +1638,7 @@
       <c r="D27" s="11">
         <v>2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>16.3</v>
       </c>
@@ -1639,11 +1653,11 @@
       </c>
       <c r="I27" s="4">
         <f>ROUND(D27/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>60.4</v>
+        <v>59.699999999999996</v>
       </c>
       <c r="K27" s="4">
         <v>3</v>
@@ -1657,7 +1671,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>52</v>
@@ -1665,7 +1679,7 @@
       <c r="D28" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>17.3</v>
       </c>
@@ -1684,7 +1698,7 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>64.099999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="K28" s="4">
         <v>1</v>
@@ -1698,7 +1712,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -1706,7 +1720,7 @@
       <c r="D29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
         <v>18.3</v>
       </c>
@@ -1725,7 +1739,7 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>67.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K29" s="4">
         <v>0.7</v>
@@ -1739,7 +1753,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>48</v>
@@ -1747,7 +1761,7 @@
       <c r="D30" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>20.3</v>
       </c>
@@ -1762,11 +1776,11 @@
       </c>
       <c r="I30" s="4">
         <f>ROUND(D30/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>75.2</v>
+        <v>74.399999999999991</v>
       </c>
       <c r="K30" s="4">
         <v>1.3</v>
@@ -1780,7 +1794,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="5"/>
@@ -1790,7 +1804,7 @@
       <c r="D31" s="12">
         <v>2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="27">
         <f t="shared" si="0"/>
         <v>22.3</v>
       </c>
@@ -1805,23 +1819,25 @@
       </c>
       <c r="I31" s="4">
         <f>ROUND(D31/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>82.600000000000009</v>
+        <v>81.699999999999989</v>
       </c>
       <c r="K31" s="4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M31" s="4"/>
+        <v>27.4</v>
+      </c>
+      <c r="M31" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -1829,7 +1845,7 @@
       <c r="D32" s="12">
         <v>0.5</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="27">
         <f t="shared" si="0"/>
         <v>22.8</v>
       </c>
@@ -1844,23 +1860,25 @@
       </c>
       <c r="I32" s="4">
         <f>ROUND(D32/D37*100,1)</f>
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>84.500000000000014</v>
+        <v>83.499999999999986</v>
       </c>
       <c r="K32" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M32" s="4"/>
+        <v>27.9</v>
+      </c>
+      <c r="M32" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>57</v>
@@ -1868,7 +1886,7 @@
       <c r="D33" s="12">
         <v>0.5</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="27">
         <f t="shared" si="0"/>
         <v>23.3</v>
       </c>
@@ -1883,23 +1901,25 @@
       </c>
       <c r="I33" s="4">
         <f>ROUND(D33/D37*100,1)</f>
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
-        <v>86.40000000000002</v>
+        <v>85.299999999999983</v>
       </c>
       <c r="K33" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M33" s="4"/>
+        <v>28.299999999999997</v>
+      </c>
+      <c r="M33" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>24</v>
@@ -1907,7 +1927,7 @@
       <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="27">
         <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
@@ -1926,19 +1946,21 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" si="1"/>
-        <v>90.100000000000023</v>
+        <v>88.999999999999986</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M34" s="4"/>
+        <v>30.299999999999997</v>
+      </c>
+      <c r="M34" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="16" t="s">
         <v>58</v>
@@ -1946,7 +1968,7 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="27">
         <f t="shared" si="0"/>
         <v>25.3</v>
       </c>
@@ -1965,19 +1987,21 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" si="1"/>
-        <v>93.800000000000026</v>
+        <v>92.699999999999989</v>
       </c>
       <c r="K35" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M35" s="4"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="M35" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16" t="s">
         <v>48</v>
@@ -1985,8 +2009,8 @@
       <c r="D36" s="12">
         <v>2</v>
       </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
+      <c r="E36" s="27">
+        <f>D36+E35</f>
         <v>27.3</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2000,28 +2024,30 @@
       </c>
       <c r="I36" s="4">
         <f>ROUND(D36/D37*100,1)</f>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="1"/>
-        <v>101.20000000000003</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>24.2</v>
-      </c>
-      <c r="M36" s="4"/>
+        <v>32.099999999999994</v>
+      </c>
+      <c r="M36" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="21">
+      <c r="D37" s="44">
         <f>SUM(D14:D36)</f>
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="18"/>
@@ -2029,18 +2055,31 @@
       <c r="H37" s="20"/>
       <c r="I37" s="4">
         <f>SUM(I14:I36)</f>
-        <v>101.20000000000003</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="4">
         <f>SUM(K14:K36)</f>
-        <v>24.2</v>
+        <v>32.099999999999994</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
@@ -2057,19 +2096,6 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="H8:H13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="I8:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2090,141 +2116,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2311,7 +2337,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5"/>
@@ -2354,7 +2380,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>27</v>
@@ -2395,7 +2421,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -2477,7 +2503,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="5"/>
@@ -2520,7 +2546,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>46</v>
@@ -2555,7 +2581,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>47</v>
@@ -2594,7 +2620,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>48</v>
@@ -2631,7 +2657,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>50</v>
@@ -2668,7 +2694,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -2707,7 +2733,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="5"/>
@@ -2748,7 +2774,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2787,7 +2813,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>52</v>
@@ -2824,7 +2850,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>53</v>
@@ -2861,7 +2887,7 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2898,7 +2924,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="5"/>
@@ -2939,7 +2965,7 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>56</v>
@@ -2976,7 +3002,7 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>57</v>
@@ -3013,7 +3039,7 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>24</v>
@@ -3052,7 +3078,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="13"/>
       <c r="C29" s="16" t="s">
         <v>58</v>
@@ -3089,7 +3115,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="13"/>
       <c r="C30" s="16" t="s">
         <v>48</v>
@@ -3150,13 +3176,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3172,6 +3191,13 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
